--- a/Code/Results/Cases/Case_5_152/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_152/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9593973540597176</v>
+        <v>0.5280971303754995</v>
       </c>
       <c r="C2">
-        <v>0.1529756184478472</v>
+        <v>0.2284544404075213</v>
       </c>
       <c r="D2">
-        <v>0.07464083145440981</v>
+        <v>0.06097336337137449</v>
       </c>
       <c r="E2">
-        <v>0.0647472961572344</v>
+        <v>0.1388871599330486</v>
       </c>
       <c r="F2">
-        <v>0.7082505275433491</v>
+        <v>1.181426164879099</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.8100812462579086</v>
+        <v>0.2619865053838168</v>
       </c>
       <c r="L2">
-        <v>0.147510469279041</v>
+        <v>0.1918557080101237</v>
       </c>
       <c r="M2">
-        <v>0.2043142280305226</v>
+        <v>0.1544339646903232</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.294561635425879</v>
+        <v>4.300780462613432</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8338416326192544</v>
+        <v>0.4935342816666264</v>
       </c>
       <c r="C3">
-        <v>0.1532764535672975</v>
+        <v>0.2284731720951072</v>
       </c>
       <c r="D3">
-        <v>0.07001858818401985</v>
+        <v>0.05921214971377253</v>
       </c>
       <c r="E3">
-        <v>0.06397862227586693</v>
+        <v>0.1394203463867356</v>
       </c>
       <c r="F3">
-        <v>0.6841410855648888</v>
+        <v>1.18256094622889</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7071937353266691</v>
+        <v>0.2308765021766419</v>
       </c>
       <c r="L3">
-        <v>0.1340645893661616</v>
+        <v>0.1893104981596068</v>
       </c>
       <c r="M3">
-        <v>0.1788369955908529</v>
+        <v>0.1479391547985891</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.265487633185529</v>
+        <v>4.319256954297515</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7570629683831669</v>
+        <v>0.4724925182315189</v>
       </c>
       <c r="C4">
-        <v>0.153499219812268</v>
+        <v>0.2285009141132477</v>
       </c>
       <c r="D4">
-        <v>0.06716549887568846</v>
+        <v>0.05811692019202752</v>
       </c>
       <c r="E4">
-        <v>0.06359043961680655</v>
+        <v>0.139799732201686</v>
       </c>
       <c r="F4">
-        <v>0.6705471895346946</v>
+        <v>1.183865847586276</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6440689334351077</v>
+        <v>0.2117681803738805</v>
       </c>
       <c r="L4">
-        <v>0.1259652532657967</v>
+        <v>0.1878389323735092</v>
       </c>
       <c r="M4">
-        <v>0.1633076796639514</v>
+        <v>0.1440178982112599</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.251624753369413</v>
+        <v>4.332642878461513</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7258405606140172</v>
+        <v>0.463963627350239</v>
       </c>
       <c r="C5">
-        <v>0.1535994972680967</v>
+        <v>0.2285163272789212</v>
       </c>
       <c r="D5">
-        <v>0.06599885766062386</v>
+        <v>0.05766714504215287</v>
       </c>
       <c r="E5">
-        <v>0.06345267554391754</v>
+        <v>0.1399674318446351</v>
       </c>
       <c r="F5">
-        <v>0.6652979941695065</v>
+        <v>1.184550604753554</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6183478371181224</v>
+        <v>0.2039801166259991</v>
       </c>
       <c r="L5">
-        <v>0.1227015665335429</v>
+        <v>0.1872622499611367</v>
       </c>
       <c r="M5">
-        <v>0.1570048388417966</v>
+        <v>0.1424368054558194</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.246938054637724</v>
+        <v>4.338611232546015</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7206596889381842</v>
+        <v>0.4625501937119907</v>
       </c>
       <c r="C6">
-        <v>0.1536167200489196</v>
+        <v>0.2285191354575176</v>
       </c>
       <c r="D6">
-        <v>0.0658048913134337</v>
+        <v>0.05759225180126037</v>
       </c>
       <c r="E6">
-        <v>0.06343101514629979</v>
+        <v>0.1399960698248606</v>
       </c>
       <c r="F6">
-        <v>0.6644435226409087</v>
+        <v>1.184673551213635</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6140767707723285</v>
+        <v>0.2026868500055201</v>
       </c>
       <c r="L6">
-        <v>0.1221617895010354</v>
+        <v>0.1871678827135739</v>
       </c>
       <c r="M6">
-        <v>0.1559597074234347</v>
+        <v>0.1421752871704349</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.246216821332126</v>
+        <v>4.339633291634613</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.756641643699794</v>
+        <v>0.4723773084657807</v>
       </c>
       <c r="C7">
-        <v>0.1535005338168851</v>
+        <v>0.2285011053134376</v>
       </c>
       <c r="D7">
-        <v>0.06714978154190732</v>
+        <v>0.05811086835249313</v>
       </c>
       <c r="E7">
-        <v>0.0635884998193017</v>
+        <v>0.139801940803407</v>
       </c>
       <c r="F7">
-        <v>0.6704752387278461</v>
+        <v>1.183874462871707</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6437220505845858</v>
+        <v>0.2116631524149568</v>
       </c>
       <c r="L7">
-        <v>0.1259210920099108</v>
+        <v>0.187831061858283</v>
       </c>
       <c r="M7">
-        <v>0.1632225781997683</v>
+        <v>0.1439965066677296</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.251557701647101</v>
+        <v>4.332721290467646</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.916032559662824</v>
+        <v>0.5161428231544392</v>
       </c>
       <c r="C8">
-        <v>0.153071403768319</v>
+        <v>0.2284575427009905</v>
       </c>
       <c r="D8">
-        <v>0.07305006646377876</v>
+        <v>0.06036897987339529</v>
       </c>
       <c r="E8">
-        <v>0.06446446964547725</v>
+        <v>0.1390602199417277</v>
       </c>
       <c r="F8">
-        <v>0.6996781309742346</v>
+        <v>1.18169126153736</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.7745896799154366</v>
+        <v>0.251261390787505</v>
       </c>
       <c r="L8">
-        <v>0.1428403082865159</v>
+        <v>0.1909592243999114</v>
       </c>
       <c r="M8">
-        <v>0.1955041106018136</v>
+        <v>0.1521807975338625</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.283684095102217</v>
+        <v>4.306727593939883</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.231728438965462</v>
+        <v>0.6033755538961429</v>
       </c>
       <c r="C9">
-        <v>0.1525354592539045</v>
+        <v>0.2284999591784072</v>
       </c>
       <c r="D9">
-        <v>0.08451205716634291</v>
+        <v>0.064686676617562</v>
       </c>
       <c r="E9">
-        <v>0.06687781322435171</v>
+        <v>0.1380175735434328</v>
       </c>
       <c r="F9">
-        <v>0.7671950551282691</v>
+        <v>1.182233243122475</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.032070851884356</v>
+        <v>0.3288466244278538</v>
       </c>
       <c r="L9">
-        <v>0.177380808658576</v>
+        <v>0.1978151420176815</v>
       </c>
       <c r="M9">
-        <v>0.2598639876039215</v>
+        <v>0.168754667497506</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.380263255780051</v>
+        <v>4.271945276234874</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.466556559910515</v>
+        <v>0.6683052358698092</v>
       </c>
       <c r="C10">
-        <v>0.1523338098192539</v>
+        <v>0.2286077519747849</v>
       </c>
       <c r="D10">
-        <v>0.09288375774278279</v>
+        <v>0.06779093721643648</v>
       </c>
       <c r="E10">
-        <v>0.06912028448039109</v>
+        <v>0.1375016505422195</v>
       </c>
       <c r="F10">
-        <v>0.8240156734750741</v>
+        <v>1.185570924565738</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.222467027970794</v>
+        <v>0.3857946177257361</v>
       </c>
       <c r="L10">
-        <v>0.2037674488252037</v>
+        <v>0.2032901012923531</v>
       </c>
       <c r="M10">
-        <v>0.3080228862904093</v>
+        <v>0.1812475312341064</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.474544176661595</v>
+        <v>4.256257972840871</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.574247026395966</v>
+        <v>0.6980221968193518</v>
       </c>
       <c r="C11">
-        <v>0.1522852811563666</v>
+        <v>0.2286731601055649</v>
       </c>
       <c r="D11">
-        <v>0.09668557710097048</v>
+        <v>0.06918827726053678</v>
       </c>
       <c r="E11">
-        <v>0.07025309055614315</v>
+        <v>0.1373210524912238</v>
       </c>
       <c r="F11">
-        <v>0.8516615860540213</v>
+        <v>1.18772754264468</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.309519037042463</v>
+        <v>0.4116876050145777</v>
       </c>
       <c r="L11">
-        <v>0.2160333774528738</v>
+        <v>0.2058755181214167</v>
       </c>
       <c r="M11">
-        <v>0.330176308719949</v>
+        <v>0.1869987861070328</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.523178978616727</v>
+        <v>4.251263587692051</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.615171707509802</v>
+        <v>0.7093006842715397</v>
       </c>
       <c r="C12">
-        <v>0.152273256714885</v>
+        <v>0.2287002600376695</v>
       </c>
       <c r="D12">
-        <v>0.09812463806423466</v>
+        <v>0.06971526896246161</v>
       </c>
       <c r="E12">
-        <v>0.07069921236922738</v>
+        <v>0.1372604262444881</v>
       </c>
       <c r="F12">
-        <v>0.862409426043655</v>
+        <v>1.18863594090773</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.342561529010425</v>
+        <v>0.4214904134902895</v>
       </c>
       <c r="L12">
-        <v>0.2207196870035375</v>
+        <v>0.2068681368366185</v>
       </c>
       <c r="M12">
-        <v>0.3386054004523942</v>
+        <v>0.1891863525037394</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.542482865559606</v>
+        <v>4.249680246584717</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.606351076191828</v>
+        <v>0.7068705433748335</v>
       </c>
       <c r="C13">
-        <v>0.1522755614931057</v>
+        <v>0.2286943202615603</v>
       </c>
       <c r="D13">
-        <v>0.0978147319314715</v>
+        <v>0.06960186786767508</v>
       </c>
       <c r="E13">
-        <v>0.070602353419428</v>
+        <v>0.1372731382294354</v>
       </c>
       <c r="F13">
-        <v>0.860081940628433</v>
+        <v>1.188436222033999</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.335441534337747</v>
+        <v>0.4193793127943479</v>
       </c>
       <c r="L13">
-        <v>0.2197085000326098</v>
+        <v>0.2066537557147541</v>
       </c>
       <c r="M13">
-        <v>0.3367881833759441</v>
+        <v>0.1887147917506482</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.538284968057894</v>
+        <v>4.250007553553871</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.577610905278561</v>
+        <v>0.6989495806639923</v>
       </c>
       <c r="C14">
-        <v>0.1522841637368586</v>
+        <v>0.2286753430418855</v>
       </c>
       <c r="D14">
-        <v>0.09680397966367593</v>
+        <v>0.06923167641232197</v>
       </c>
       <c r="E14">
-        <v>0.07028944384805413</v>
+        <v>0.137315909261833</v>
       </c>
       <c r="F14">
-        <v>0.8525401051483641</v>
+        <v>1.187800438933238</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.312235816612485</v>
+        <v>0.41249413667299</v>
       </c>
       <c r="L14">
-        <v>0.2164180696296967</v>
+        <v>0.2059569096861935</v>
       </c>
       <c r="M14">
-        <v>0.3308689437007146</v>
+        <v>0.1871785649440554</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.524748982222405</v>
+        <v>4.251127154418242</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.560026179117841</v>
+        <v>0.6941010423527985</v>
       </c>
       <c r="C15">
-        <v>0.1522902645108104</v>
+        <v>0.2286640218695055</v>
       </c>
       <c r="D15">
-        <v>0.09618479610348629</v>
+        <v>0.06900464273044093</v>
       </c>
       <c r="E15">
-        <v>0.07010004068601106</v>
+        <v>0.1373431181354938</v>
       </c>
       <c r="F15">
-        <v>0.8479574681902733</v>
+        <v>1.187422948328418</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.298032224610637</v>
+        <v>0.4082764543381359</v>
       </c>
       <c r="L15">
-        <v>0.2144081012783943</v>
+        <v>0.2055318378076549</v>
       </c>
       <c r="M15">
-        <v>0.3272486035088988</v>
+        <v>0.1862388403272845</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.516575181469022</v>
+        <v>4.251853040963908</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.459537846278607</v>
+        <v>0.6663667373215389</v>
       </c>
       <c r="C16">
-        <v>0.152337862260211</v>
+        <v>0.2286038048804073</v>
       </c>
       <c r="D16">
-        <v>0.09263519660034802</v>
+        <v>0.06769931799697559</v>
       </c>
       <c r="E16">
-        <v>0.06904860021210268</v>
+        <v>0.1375145401930737</v>
       </c>
       <c r="F16">
-        <v>0.8222468379870804</v>
+        <v>1.185442824147657</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.216788043055459</v>
+        <v>0.3841021518125842</v>
       </c>
       <c r="L16">
-        <v>0.2029714360625974</v>
+        <v>0.2031230414081762</v>
       </c>
       <c r="M16">
-        <v>0.3065804496150975</v>
+        <v>0.1808730355445221</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.47148649072787</v>
+        <v>4.256627461071446</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.398127159339708</v>
+        <v>0.6493983586539684</v>
       </c>
       <c r="C17">
-        <v>0.1523782222329118</v>
+        <v>0.2285710406287436</v>
       </c>
       <c r="D17">
-        <v>0.09045619234039037</v>
+        <v>0.06689473637174359</v>
       </c>
       <c r="E17">
-        <v>0.06843309398019137</v>
+        <v>0.1376335458175753</v>
       </c>
       <c r="F17">
-        <v>0.8069487593686233</v>
+        <v>1.184391527144925</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.167070025790508</v>
+        <v>0.3692683701772808</v>
       </c>
       <c r="L17">
-        <v>0.1960252142636705</v>
+        <v>0.2016695691992823</v>
       </c>
       <c r="M17">
-        <v>0.293967402784034</v>
+        <v>0.1775986713558879</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.445339550561982</v>
+        <v>4.260104941671898</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.362885577362135</v>
+        <v>0.639655584783128</v>
       </c>
       <c r="C18">
-        <v>0.1524054934588079</v>
+        <v>0.2285537379304543</v>
       </c>
       <c r="D18">
-        <v>0.08920225276937543</v>
+        <v>0.06643057021217658</v>
       </c>
       <c r="E18">
-        <v>0.06808961812303416</v>
+        <v>0.1377070876662625</v>
       </c>
       <c r="F18">
-        <v>0.7983176362544242</v>
+        <v>1.183846930933896</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.13851400310682</v>
+        <v>0.3607351796931653</v>
       </c>
       <c r="L18">
-        <v>0.1920544026510811</v>
+        <v>0.2008424998466012</v>
       </c>
       <c r="M18">
-        <v>0.2867355346810569</v>
+        <v>0.1757217687344621</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.430837477209877</v>
+        <v>4.262306701687351</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.350966572127845</v>
+        <v>0.6363597845483469</v>
       </c>
       <c r="C19">
-        <v>0.1524154198303052</v>
+        <v>0.2285481451563953</v>
       </c>
       <c r="D19">
-        <v>0.08877757183458357</v>
+        <v>0.06627317310176295</v>
       </c>
       <c r="E19">
-        <v>0.06797510670580031</v>
+        <v>0.1377328629085603</v>
       </c>
       <c r="F19">
-        <v>0.7954235294652108</v>
+        <v>1.183672860715461</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.128851949151766</v>
+        <v>0.3578457968743578</v>
       </c>
       <c r="L19">
-        <v>0.1907140479083722</v>
+        <v>0.2005640038084238</v>
       </c>
       <c r="M19">
-        <v>0.2842907292918895</v>
+        <v>0.1750873887548963</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.426017767289864</v>
+        <v>4.263086807829353</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.404655988207082</v>
+        <v>0.6512029174821521</v>
       </c>
       <c r="C20">
-        <v>0.1523735049682386</v>
+        <v>0.2285743689717918</v>
       </c>
       <c r="D20">
-        <v>0.09068821436194696</v>
+        <v>0.06698052969363744</v>
       </c>
       <c r="E20">
-        <v>0.06849751742558574</v>
+        <v>0.1376203504858644</v>
       </c>
       <c r="F20">
-        <v>0.8085597429271587</v>
+        <v>1.18449722161094</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.172358303684859</v>
+        <v>0.3708475780983065</v>
       </c>
       <c r="L20">
-        <v>0.1967620926094185</v>
+        <v>0.2018233700639911</v>
       </c>
       <c r="M20">
-        <v>0.2953076878144785</v>
+        <v>0.1779465688739634</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.44806693825177</v>
+        <v>4.259713893052805</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.586048497035932</v>
+        <v>0.7012754768942386</v>
       </c>
       <c r="C21">
-        <v>0.1522814634638792</v>
+        <v>0.2286808540230396</v>
       </c>
       <c r="D21">
-        <v>0.0971008757782883</v>
+        <v>0.06934046915841208</v>
       </c>
       <c r="E21">
-        <v>0.07038087958962436</v>
+        <v>0.1373031358404013</v>
       </c>
       <c r="F21">
-        <v>0.8547475852107453</v>
+        <v>1.187984694628156</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.319049666017264</v>
+        <v>0.4145165458492386</v>
       </c>
       <c r="L21">
-        <v>0.2173833924105537</v>
+        <v>0.2061612222383786</v>
       </c>
       <c r="M21">
-        <v>0.33260644086306</v>
+        <v>0.1876295298963058</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.528700252709939</v>
+        <v>4.250789944102905</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.705452472011473</v>
+        <v>0.7341480999825194</v>
       </c>
       <c r="C22">
-        <v>0.152258410457577</v>
+        <v>0.2287640262117634</v>
       </c>
       <c r="D22">
-        <v>0.1012885632978779</v>
+        <v>0.07087028030134945</v>
       </c>
       <c r="E22">
-        <v>0.07171223087801692</v>
+        <v>0.1371410546165244</v>
       </c>
       <c r="F22">
-        <v>0.8865703649584304</v>
+        <v>1.190798630028738</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.41538189661398</v>
+        <v>0.4430431074109435</v>
       </c>
       <c r="L22">
-        <v>0.2311042326225703</v>
+        <v>0.2090753718649836</v>
       </c>
       <c r="M22">
-        <v>0.3572193508408148</v>
+        <v>0.1940143382060455</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.58659993104618</v>
+        <v>4.246752411474347</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.64163919169755</v>
+        <v>0.7165900754359313</v>
       </c>
       <c r="C23">
-        <v>0.1522672695245788</v>
+        <v>0.2287184008081908</v>
       </c>
       <c r="D23">
-        <v>0.099053706916159</v>
+        <v>0.07005494645217425</v>
       </c>
       <c r="E23">
-        <v>0.07099214131283205</v>
+        <v>0.1372234268173891</v>
       </c>
       <c r="F23">
-        <v>0.8694291024701641</v>
+        <v>1.189247874675345</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.3639203009798</v>
+        <v>0.4278193381062749</v>
       </c>
       <c r="L23">
-        <v>0.2237575716512623</v>
+        <v>0.2075128160856252</v>
       </c>
       <c r="M23">
-        <v>0.3440597246268879</v>
+        <v>0.1906015199495386</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.555200671564336</v>
+        <v>4.248743119533685</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.401704106085674</v>
+        <v>0.6503870372294784</v>
       </c>
       <c r="C24">
-        <v>0.1523756249838044</v>
+        <v>0.2285728594479082</v>
       </c>
       <c r="D24">
-        <v>0.09058332097151833</v>
+        <v>0.06694174751910964</v>
       </c>
       <c r="E24">
-        <v>0.0684683593040134</v>
+        <v>0.1376263001336877</v>
       </c>
       <c r="F24">
-        <v>0.8078309081300006</v>
+        <v>1.184449250838483</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.169967388591886</v>
+        <v>0.3701336339010197</v>
       </c>
       <c r="L24">
-        <v>0.1964288795946629</v>
+        <v>0.2017538100531482</v>
       </c>
       <c r="M24">
-        <v>0.29470168444211</v>
+        <v>0.177789267038726</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.446832239512901</v>
+        <v>4.259890055314429</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.14589215448234</v>
+        <v>0.5796279470778245</v>
       </c>
       <c r="C25">
-        <v>0.1526471720106244</v>
+        <v>0.2284749341374592</v>
       </c>
       <c r="D25">
-        <v>0.08142124469959811</v>
+        <v>0.06353051403426235</v>
       </c>
       <c r="E25">
-        <v>0.06614595624777841</v>
+        <v>0.1382556448363506</v>
       </c>
       <c r="F25">
-        <v>0.7477364229514549</v>
+        <v>1.181570350968279</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.9622543479053434</v>
+        <v>0.3078662799447613</v>
       </c>
       <c r="L25">
-        <v>0.1678730370726242</v>
+        <v>0.1958833880421054</v>
       </c>
       <c r="M25">
-        <v>0.242317055225989</v>
+        <v>0.1642152292169747</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.350257665646637</v>
+        <v>4.279621775039288</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_152/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_152/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5280971303754995</v>
+        <v>0.9593973540597176</v>
       </c>
       <c r="C2">
-        <v>0.2284544404075213</v>
+        <v>0.1529756184477513</v>
       </c>
       <c r="D2">
-        <v>0.06097336337137449</v>
+        <v>0.07464083145446665</v>
       </c>
       <c r="E2">
-        <v>0.1388871599330486</v>
+        <v>0.06474729615723973</v>
       </c>
       <c r="F2">
-        <v>1.181426164879099</v>
+        <v>0.7082505275433419</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.2619865053838168</v>
+        <v>0.810081246257937</v>
       </c>
       <c r="L2">
-        <v>0.1918557080101237</v>
+        <v>0.1475104692790126</v>
       </c>
       <c r="M2">
-        <v>0.1544339646903232</v>
+        <v>0.204314228030519</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>4.300780462613432</v>
+        <v>2.294561635425879</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4935342816666264</v>
+        <v>0.8338416326192259</v>
       </c>
       <c r="C3">
-        <v>0.2284731720951072</v>
+        <v>0.153276453567635</v>
       </c>
       <c r="D3">
-        <v>0.05921214971377253</v>
+        <v>0.07001858818418327</v>
       </c>
       <c r="E3">
-        <v>0.1394203463867356</v>
+        <v>0.06397862227585449</v>
       </c>
       <c r="F3">
-        <v>1.18256094622889</v>
+        <v>0.6841410855648604</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2308765021766419</v>
+        <v>0.7071937353266691</v>
       </c>
       <c r="L3">
-        <v>0.1893104981596068</v>
+        <v>0.1340645893662114</v>
       </c>
       <c r="M3">
-        <v>0.1479391547985891</v>
+        <v>0.1788369955908564</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>4.319256954297515</v>
+        <v>2.265487633185529</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4724925182315189</v>
+        <v>0.757062968383309</v>
       </c>
       <c r="C4">
-        <v>0.2285009141132477</v>
+        <v>0.1534992198123497</v>
       </c>
       <c r="D4">
-        <v>0.05811692019202752</v>
+        <v>0.06716549887573819</v>
       </c>
       <c r="E4">
-        <v>0.139799732201686</v>
+        <v>0.06359043961681898</v>
       </c>
       <c r="F4">
-        <v>1.183865847586276</v>
+        <v>0.6705471895346804</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2117681803738805</v>
+        <v>0.6440689334349941</v>
       </c>
       <c r="L4">
-        <v>0.1878389323735092</v>
+        <v>0.1259652532658535</v>
       </c>
       <c r="M4">
-        <v>0.1440178982112599</v>
+        <v>0.1633076796639514</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>4.332642878461513</v>
+        <v>2.251624753369299</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.463963627350239</v>
+        <v>0.7258405606140741</v>
       </c>
       <c r="C5">
-        <v>0.2285163272789212</v>
+        <v>0.1535994972680186</v>
       </c>
       <c r="D5">
-        <v>0.05766714504215287</v>
+        <v>0.06599885766075175</v>
       </c>
       <c r="E5">
-        <v>0.1399674318446351</v>
+        <v>0.06345267554393352</v>
       </c>
       <c r="F5">
-        <v>1.184550604753554</v>
+        <v>0.665297994169471</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2039801166259991</v>
+        <v>0.6183478371180939</v>
       </c>
       <c r="L5">
-        <v>0.1872622499611367</v>
+        <v>0.1227015665336708</v>
       </c>
       <c r="M5">
-        <v>0.1424368054558194</v>
+        <v>0.1570048388418037</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>4.338611232546015</v>
+        <v>2.24693805463761</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4625501937119907</v>
+        <v>0.7206596889380421</v>
       </c>
       <c r="C6">
-        <v>0.2285191354575176</v>
+        <v>0.1536167200489444</v>
       </c>
       <c r="D6">
-        <v>0.05759225180126037</v>
+        <v>0.06580489131332001</v>
       </c>
       <c r="E6">
-        <v>0.1399960698248606</v>
+        <v>0.06343101514629623</v>
       </c>
       <c r="F6">
-        <v>1.184673551213635</v>
+        <v>0.6644435226409087</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2026868500055201</v>
+        <v>0.6140767707723427</v>
       </c>
       <c r="L6">
-        <v>0.1871678827135739</v>
+        <v>0.1221617895009857</v>
       </c>
       <c r="M6">
-        <v>0.1421752871704349</v>
+        <v>0.1559597074234382</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>4.339633291634613</v>
+        <v>2.246216821332126</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4723773084657807</v>
+        <v>0.7566416437000214</v>
       </c>
       <c r="C7">
-        <v>0.2285011053134376</v>
+        <v>0.1535005338171302</v>
       </c>
       <c r="D7">
-        <v>0.05811086835249313</v>
+        <v>0.06714978154202811</v>
       </c>
       <c r="E7">
-        <v>0.139801940803407</v>
+        <v>0.06358849981926262</v>
       </c>
       <c r="F7">
-        <v>1.183874462871707</v>
+        <v>0.6704752387278177</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2116631524149568</v>
+        <v>0.6437220505845858</v>
       </c>
       <c r="L7">
-        <v>0.187831061858283</v>
+        <v>0.1259210920099179</v>
       </c>
       <c r="M7">
-        <v>0.1439965066677296</v>
+        <v>0.1632225781997647</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>4.332721290467646</v>
+        <v>2.251557701647044</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5161428231544392</v>
+        <v>0.9160325596627956</v>
       </c>
       <c r="C8">
-        <v>0.2284575427009905</v>
+        <v>0.153071403767985</v>
       </c>
       <c r="D8">
-        <v>0.06036897987339529</v>
+        <v>0.07305006646411982</v>
       </c>
       <c r="E8">
-        <v>0.1390602199417277</v>
+        <v>0.06446446964545949</v>
       </c>
       <c r="F8">
-        <v>1.18169126153736</v>
+        <v>0.6996781309742488</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.251261390787505</v>
+        <v>0.774589679915465</v>
       </c>
       <c r="L8">
-        <v>0.1909592243999114</v>
+        <v>0.1428403082864307</v>
       </c>
       <c r="M8">
-        <v>0.1521807975338625</v>
+        <v>0.1955041106018243</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>4.306727593939883</v>
+        <v>2.283684095102217</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6033755538961429</v>
+        <v>1.231728438965462</v>
       </c>
       <c r="C9">
-        <v>0.2284999591784072</v>
+        <v>0.1525354592536488</v>
       </c>
       <c r="D9">
-        <v>0.064686676617562</v>
+        <v>0.08451205716633581</v>
       </c>
       <c r="E9">
-        <v>0.1380175735434328</v>
+        <v>0.06687781322431796</v>
       </c>
       <c r="F9">
-        <v>1.182233243122475</v>
+        <v>0.7671950551282762</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3288466244278538</v>
+        <v>1.03207085188447</v>
       </c>
       <c r="L9">
-        <v>0.1978151420176815</v>
+        <v>0.1773808086585404</v>
       </c>
       <c r="M9">
-        <v>0.168754667497506</v>
+        <v>0.2598639876039037</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>4.271945276234874</v>
+        <v>2.380263255780079</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6683052358698092</v>
+        <v>1.466556559910487</v>
       </c>
       <c r="C10">
-        <v>0.2286077519747849</v>
+        <v>0.1523338098196092</v>
       </c>
       <c r="D10">
-        <v>0.06779093721643648</v>
+        <v>0.09288375774261937</v>
       </c>
       <c r="E10">
-        <v>0.1375016505422195</v>
+        <v>0.0691202844804053</v>
       </c>
       <c r="F10">
-        <v>1.185570924565738</v>
+        <v>0.8240156734750883</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.3857946177257361</v>
+        <v>1.222467027970794</v>
       </c>
       <c r="L10">
-        <v>0.2032901012923531</v>
+        <v>0.2037674488252321</v>
       </c>
       <c r="M10">
-        <v>0.1812475312341064</v>
+        <v>0.3080228862904235</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>4.256257972840871</v>
+        <v>2.474544176661624</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6980221968193518</v>
+        <v>1.574247026396137</v>
       </c>
       <c r="C11">
-        <v>0.2286731601055649</v>
+        <v>0.1522852811564945</v>
       </c>
       <c r="D11">
-        <v>0.06918827726053678</v>
+        <v>0.09668557710109127</v>
       </c>
       <c r="E11">
-        <v>0.1373210524912238</v>
+        <v>0.0702530905561396</v>
       </c>
       <c r="F11">
-        <v>1.18772754264468</v>
+        <v>0.8516615860540355</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4116876050145777</v>
+        <v>1.309519037042321</v>
       </c>
       <c r="L11">
-        <v>0.2058755181214167</v>
+        <v>0.2160333774529164</v>
       </c>
       <c r="M11">
-        <v>0.1869987861070328</v>
+        <v>0.330176308719949</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>4.251263587692051</v>
+        <v>2.523178978616585</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7093006842715397</v>
+        <v>1.61517170750983</v>
       </c>
       <c r="C12">
-        <v>0.2287002600376695</v>
+        <v>0.1522732567145297</v>
       </c>
       <c r="D12">
-        <v>0.06971526896246161</v>
+        <v>0.09812463806411387</v>
       </c>
       <c r="E12">
-        <v>0.1372604262444881</v>
+        <v>0.07069921236922738</v>
       </c>
       <c r="F12">
-        <v>1.18863594090773</v>
+        <v>0.8624094260436692</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.4214904134902895</v>
+        <v>1.342561529010396</v>
       </c>
       <c r="L12">
-        <v>0.2068681368366185</v>
+        <v>0.2207196870035375</v>
       </c>
       <c r="M12">
-        <v>0.1891863525037394</v>
+        <v>0.3386054004523729</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>4.249680246584717</v>
+        <v>2.542482865559549</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7068705433748335</v>
+        <v>1.60635107619197</v>
       </c>
       <c r="C13">
-        <v>0.2286943202615603</v>
+        <v>0.1522755614932194</v>
       </c>
       <c r="D13">
-        <v>0.06960186786767508</v>
+        <v>0.09781473193146439</v>
       </c>
       <c r="E13">
-        <v>0.1372731382294354</v>
+        <v>0.07060235341942445</v>
       </c>
       <c r="F13">
-        <v>1.188436222033999</v>
+        <v>0.8600819406284472</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.4193793127943479</v>
+        <v>1.335441534337747</v>
       </c>
       <c r="L13">
-        <v>0.2066537557147541</v>
+        <v>0.2197085000326382</v>
       </c>
       <c r="M13">
-        <v>0.1887147917506482</v>
+        <v>0.3367881833759299</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>4.250007553553871</v>
+        <v>2.538284968057894</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6989495806639923</v>
+        <v>1.577610905278505</v>
       </c>
       <c r="C14">
-        <v>0.2286753430418855</v>
+        <v>0.1522841637368444</v>
       </c>
       <c r="D14">
-        <v>0.06923167641232197</v>
+        <v>0.09680397966378962</v>
       </c>
       <c r="E14">
-        <v>0.137315909261833</v>
+        <v>0.07028944384806479</v>
       </c>
       <c r="F14">
-        <v>1.187800438933238</v>
+        <v>0.8525401051483783</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.41249413667299</v>
+        <v>1.312235816612514</v>
       </c>
       <c r="L14">
-        <v>0.2059569096861935</v>
+        <v>0.216418069629654</v>
       </c>
       <c r="M14">
-        <v>0.1871785649440554</v>
+        <v>0.3308689437007004</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>4.251127154418242</v>
+        <v>2.524748982222462</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6941010423527985</v>
+        <v>1.560026179117841</v>
       </c>
       <c r="C15">
-        <v>0.2286640218695055</v>
+        <v>0.1522902645110449</v>
       </c>
       <c r="D15">
-        <v>0.06900464273044093</v>
+        <v>0.09618479610347919</v>
       </c>
       <c r="E15">
-        <v>0.1373431181354938</v>
+        <v>0.07010004068601106</v>
       </c>
       <c r="F15">
-        <v>1.187422948328418</v>
+        <v>0.8479574681902733</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.4082764543381359</v>
+        <v>1.298032224610722</v>
       </c>
       <c r="L15">
-        <v>0.2055318378076549</v>
+        <v>0.2144081012783232</v>
       </c>
       <c r="M15">
-        <v>0.1862388403272845</v>
+        <v>0.3272486035088917</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>4.251853040963908</v>
+        <v>2.516575181469051</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6663667373215389</v>
+        <v>1.459537846278579</v>
       </c>
       <c r="C16">
-        <v>0.2286038048804073</v>
+        <v>0.1523378622601044</v>
       </c>
       <c r="D16">
-        <v>0.06769931799697559</v>
+        <v>0.09263519660040487</v>
       </c>
       <c r="E16">
-        <v>0.1375145401930737</v>
+        <v>0.06904860021210268</v>
       </c>
       <c r="F16">
-        <v>1.185442824147657</v>
+        <v>0.8222468379870804</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.3841021518125842</v>
+        <v>1.216788043055459</v>
       </c>
       <c r="L16">
-        <v>0.2031230414081762</v>
+        <v>0.2029714360626116</v>
       </c>
       <c r="M16">
-        <v>0.1808730355445221</v>
+        <v>0.3065804496150975</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>4.256627461071446</v>
+        <v>2.471486490727898</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6493983586539684</v>
+        <v>1.398127159339708</v>
       </c>
       <c r="C17">
-        <v>0.2285710406287436</v>
+        <v>0.1523782222325707</v>
       </c>
       <c r="D17">
-        <v>0.06689473637174359</v>
+        <v>0.09045619234049695</v>
       </c>
       <c r="E17">
-        <v>0.1376335458175753</v>
+        <v>0.06843309398021269</v>
       </c>
       <c r="F17">
-        <v>1.184391527144925</v>
+        <v>0.8069487593686091</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.3692683701772808</v>
+        <v>1.167070025790537</v>
       </c>
       <c r="L17">
-        <v>0.2016695691992823</v>
+        <v>0.1960252142637131</v>
       </c>
       <c r="M17">
-        <v>0.1775986713558879</v>
+        <v>0.293967402784034</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>4.260104941671898</v>
+        <v>2.445339550561954</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.639655584783128</v>
+        <v>1.362885577362164</v>
       </c>
       <c r="C18">
-        <v>0.2285537379304543</v>
+        <v>0.1524054934585948</v>
       </c>
       <c r="D18">
-        <v>0.06643057021217658</v>
+        <v>0.08920225276930438</v>
       </c>
       <c r="E18">
-        <v>0.1377070876662625</v>
+        <v>0.06808961812303416</v>
       </c>
       <c r="F18">
-        <v>1.183846930933896</v>
+        <v>0.7983176362544242</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.3607351796931653</v>
+        <v>1.138514003106707</v>
       </c>
       <c r="L18">
-        <v>0.2008424998466012</v>
+        <v>0.19205440265101</v>
       </c>
       <c r="M18">
-        <v>0.1757217687344621</v>
+        <v>0.2867355346810712</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>4.262306701687351</v>
+        <v>2.43083747720982</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6363597845483469</v>
+        <v>1.350966572127845</v>
       </c>
       <c r="C19">
-        <v>0.2285481451563953</v>
+        <v>0.1524154198307599</v>
       </c>
       <c r="D19">
-        <v>0.06627317310176295</v>
+        <v>0.08877757183438462</v>
       </c>
       <c r="E19">
-        <v>0.1377328629085603</v>
+        <v>0.06797510670582874</v>
       </c>
       <c r="F19">
-        <v>1.183672860715461</v>
+        <v>0.7954235294651966</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.3578457968743578</v>
+        <v>1.128851949151652</v>
       </c>
       <c r="L19">
-        <v>0.2005640038084238</v>
+        <v>0.1907140479083154</v>
       </c>
       <c r="M19">
-        <v>0.1750873887548963</v>
+        <v>0.2842907292918966</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>4.263086807829353</v>
+        <v>2.426017767289835</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.6512029174821521</v>
+        <v>1.404655988206855</v>
       </c>
       <c r="C20">
-        <v>0.2285743689717918</v>
+        <v>0.1523735049680042</v>
       </c>
       <c r="D20">
-        <v>0.06698052969363744</v>
+        <v>0.09068821436183327</v>
       </c>
       <c r="E20">
-        <v>0.1376203504858644</v>
+        <v>0.06849751742558574</v>
       </c>
       <c r="F20">
-        <v>1.18449722161094</v>
+        <v>0.8085597429271445</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.3708475780983065</v>
+        <v>1.172358303684803</v>
       </c>
       <c r="L20">
-        <v>0.2018233700639911</v>
+        <v>0.19676209260939</v>
       </c>
       <c r="M20">
-        <v>0.1779465688739634</v>
+        <v>0.2953076878144572</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>4.259713893052805</v>
+        <v>2.448066938251714</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7012754768942386</v>
+        <v>1.586048497035961</v>
       </c>
       <c r="C21">
-        <v>0.2286808540230396</v>
+        <v>0.152281463464135</v>
       </c>
       <c r="D21">
-        <v>0.06934046915841208</v>
+        <v>0.09710087577817461</v>
       </c>
       <c r="E21">
-        <v>0.1373031358404013</v>
+        <v>0.07038087958965988</v>
       </c>
       <c r="F21">
-        <v>1.187984694628156</v>
+        <v>0.8547475852107027</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.4145165458492386</v>
+        <v>1.319049666017236</v>
       </c>
       <c r="L21">
-        <v>0.2061612222383786</v>
+        <v>0.2173833924105537</v>
       </c>
       <c r="M21">
-        <v>0.1876295298963058</v>
+        <v>0.3326064408630671</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>4.250789944102905</v>
+        <v>2.528700252709854</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7341480999825194</v>
+        <v>1.705452472011331</v>
       </c>
       <c r="C22">
-        <v>0.2287640262117634</v>
+        <v>0.1522584104573355</v>
       </c>
       <c r="D22">
-        <v>0.07087028030134945</v>
+        <v>0.1012885632979419</v>
       </c>
       <c r="E22">
-        <v>0.1371410546165244</v>
+        <v>0.0717122308779814</v>
       </c>
       <c r="F22">
-        <v>1.190798630028738</v>
+        <v>0.8865703649584162</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.4430431074109435</v>
+        <v>1.415381896614036</v>
       </c>
       <c r="L22">
-        <v>0.2090753718649836</v>
+        <v>0.2311042326224992</v>
       </c>
       <c r="M22">
-        <v>0.1940143382060455</v>
+        <v>0.3572193508408077</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>4.246752411474347</v>
+        <v>2.586599931046209</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7165900754359313</v>
+        <v>1.641639191697607</v>
       </c>
       <c r="C23">
-        <v>0.2287184008081908</v>
+        <v>0.1522672695246925</v>
       </c>
       <c r="D23">
-        <v>0.07005494645217425</v>
+        <v>0.0990537069161519</v>
       </c>
       <c r="E23">
-        <v>0.1372234268173891</v>
+        <v>0.07099214131286047</v>
       </c>
       <c r="F23">
-        <v>1.189247874675345</v>
+        <v>0.8694291024701783</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.4278193381062749</v>
+        <v>1.363920300979657</v>
       </c>
       <c r="L23">
-        <v>0.2075128160856252</v>
+        <v>0.2237575716512197</v>
       </c>
       <c r="M23">
-        <v>0.1906015199495386</v>
+        <v>0.3440597246268737</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>4.248743119533685</v>
+        <v>2.555200671564307</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.6503870372294784</v>
+        <v>1.401704106085788</v>
       </c>
       <c r="C24">
-        <v>0.2285728594479082</v>
+        <v>0.1523756249838115</v>
       </c>
       <c r="D24">
-        <v>0.06694174751910964</v>
+        <v>0.09058332097163202</v>
       </c>
       <c r="E24">
-        <v>0.1376263001336877</v>
+        <v>0.06846835930401696</v>
       </c>
       <c r="F24">
-        <v>1.184449250838483</v>
+        <v>0.8078309081299722</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.3701336339010197</v>
+        <v>1.169967388591999</v>
       </c>
       <c r="L24">
-        <v>0.2017538100531482</v>
+        <v>0.1964288795947056</v>
       </c>
       <c r="M24">
-        <v>0.177789267038726</v>
+        <v>0.2947016844421171</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>4.259890055314429</v>
+        <v>2.446832239512901</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5796279470778245</v>
+        <v>1.14589215448234</v>
       </c>
       <c r="C25">
-        <v>0.2284749341374592</v>
+        <v>0.1526471720105391</v>
       </c>
       <c r="D25">
-        <v>0.06353051403426235</v>
+        <v>0.08142124469966916</v>
       </c>
       <c r="E25">
-        <v>0.1382556448363506</v>
+        <v>0.06614595624779085</v>
       </c>
       <c r="F25">
-        <v>1.181570350968279</v>
+        <v>0.7477364229514478</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3078662799447613</v>
+        <v>0.9622543479052581</v>
       </c>
       <c r="L25">
-        <v>0.1958833880421054</v>
+        <v>0.1678730370725816</v>
       </c>
       <c r="M25">
-        <v>0.1642152292169747</v>
+        <v>0.2423170552259926</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>4.279621775039288</v>
+        <v>2.350257665646552</v>
       </c>
     </row>
   </sheetData>
